--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Lam Kuen</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>Harry Cheung</t>
+  </si>
+  <si>
+    <t>Hao</t>
+  </si>
+  <si>
+    <t>Arbinnav</t>
+  </si>
+  <si>
+    <t>Denvendra</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Faye</t>
   </si>
 </sst>
 </file>
@@ -435,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,6 +546,9 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -539,15 +557,32 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Lam Kuen</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Guanglei</t>
   </si>
   <si>
-    <t>La Son</t>
-  </si>
-  <si>
     <t>Begger</t>
   </si>
   <si>
@@ -112,6 +109,18 @@
   </si>
   <si>
     <t>Faye</t>
+  </si>
+  <si>
+    <t>Fion</t>
+  </si>
+  <si>
+    <t>Somingtat</t>
+  </si>
+  <si>
+    <t>SomingtatW</t>
+  </si>
+  <si>
+    <t>JonathanW</t>
   </si>
 </sst>
 </file>
@@ -450,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +484,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -486,7 +495,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -497,96 +506,108 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -469,6 +469,7 @@
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -506,7 +507,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -520,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -16,29 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
-  <si>
-    <t>Lam Kuen</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Leo</t>
   </si>
   <si>
-    <t>Lam Kei</t>
-  </si>
-  <si>
-    <t>Francis</t>
-  </si>
-  <si>
-    <t>Small Tony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anthony </t>
-  </si>
-  <si>
-    <t>Jonathan</t>
-  </si>
-  <si>
     <t>Rohda</t>
   </si>
   <si>
@@ -84,9 +66,6 @@
     <t>See Fu</t>
   </si>
   <si>
-    <t>Yellow</t>
-  </si>
-  <si>
     <t>Guanglei</t>
   </si>
   <si>
@@ -111,16 +90,67 @@
     <t>Faye</t>
   </si>
   <si>
-    <t>Fion</t>
-  </si>
-  <si>
-    <t>Somingtat</t>
-  </si>
-  <si>
     <t>SomingtatW</t>
   </si>
   <si>
     <t>JonathanW</t>
+  </si>
+  <si>
+    <t>Me</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Dad</t>
+  </si>
+  <si>
+    <t>Mum</t>
+  </si>
+  <si>
+    <t>Sis</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>#Somingtat</t>
+  </si>
+  <si>
+    <t>*Lam Kuen</t>
+  </si>
+  <si>
+    <t>*Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Anthony </t>
+  </si>
+  <si>
+    <t>*Jonathan</t>
+  </si>
+  <si>
+    <t>*Francis</t>
+  </si>
+  <si>
+    <t>*Small Tony</t>
+  </si>
+  <si>
+    <t>*Brother</t>
+  </si>
+  <si>
+    <t>#Veg</t>
+  </si>
+  <si>
+    <t>**Best</t>
+  </si>
+  <si>
+    <t>**Lam Kei</t>
+  </si>
+  <si>
+    <t>**KaYan</t>
   </si>
 </sst>
 </file>
@@ -156,8 +186,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,151 +490,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>16</v>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Leo</t>
   </si>
@@ -151,6 +151,45 @@
   </si>
   <si>
     <t>**KaYan</t>
+  </si>
+  <si>
+    <t>Pui</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Ho Ming</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Chan Dan</t>
+  </si>
+  <si>
+    <t>Ho Kim Chin</t>
+  </si>
+  <si>
+    <t>Sol Bread</t>
+  </si>
+  <si>
+    <t>Fai Chi</t>
+  </si>
+  <si>
+    <t>Shum Kit</t>
+  </si>
+  <si>
+    <t>Wong Ming</t>
+  </si>
+  <si>
+    <t>Zuey Tsui</t>
+  </si>
+  <si>
+    <t>Mak Wing</t>
+  </si>
+  <si>
+    <t>Wong Kei</t>
   </si>
 </sst>
 </file>
@@ -490,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +543,7 @@
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -517,8 +556,11 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -531,8 +573,11 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -545,8 +590,11 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -559,8 +607,11 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -573,8 +624,11 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -587,8 +641,11 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -601,8 +658,11 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -612,10 +672,13 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -623,10 +686,13 @@
       <c r="D9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -634,41 +700,61 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
         <v>12</v>
       </c>
     </row>

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Leo</t>
   </si>
@@ -180,16 +180,46 @@
     <t>Shum Kit</t>
   </si>
   <si>
-    <t>Wong Ming</t>
-  </si>
-  <si>
     <t>Zuey Tsui</t>
   </si>
   <si>
     <t>Mak Wing</t>
   </si>
   <si>
-    <t>Wong Kei</t>
+    <t>Harry Cheung Wife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellen </t>
+  </si>
+  <si>
+    <t>Shirley Tsang</t>
+  </si>
+  <si>
+    <t>Ah Chicken</t>
+  </si>
+  <si>
+    <t>Bean Man</t>
+  </si>
+  <si>
+    <t>Foo Kwai</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>?Wong Ming</t>
+  </si>
+  <si>
+    <t>?Wong Kei</t>
+  </si>
+  <si>
+    <t>?Reconfirm</t>
   </si>
 </sst>
 </file>
@@ -529,86 +559,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
+      <c r="B2" t="s">
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -616,16 +648,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -633,16 +665,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -653,109 +685,151 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+      <c r="D21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>12</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Leo</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Arbinnav</t>
   </si>
   <si>
-    <t>Denvendra</t>
-  </si>
-  <si>
     <t>Gabriel</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Sis</t>
   </si>
   <si>
-    <t>Casey</t>
-  </si>
-  <si>
     <t>Sean</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
     <t xml:space="preserve">Ellen </t>
   </si>
   <si>
-    <t>Shirley Tsang</t>
-  </si>
-  <si>
     <t>Ah Chicken</t>
   </si>
   <si>
@@ -220,6 +211,18 @@
   </si>
   <si>
     <t>?Reconfirm</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>?Casey</t>
+  </si>
+  <si>
+    <t>?#Denvendra</t>
+  </si>
+  <si>
+    <t>?Shirley</t>
   </si>
 </sst>
 </file>
@@ -559,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,16 +580,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -594,16 +597,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -611,16 +614,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -628,24 +631,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -654,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -662,7 +665,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -671,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -679,13 +682,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -696,10 +699,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -710,73 +713,76 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -787,7 +793,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -798,38 +804,36 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -174,6 +174,9 @@
     <t>Shum Kit</t>
   </si>
   <si>
+    <t>Wong Ming</t>
+  </si>
+  <si>
     <t>Zuey Tsui</t>
   </si>
   <si>
@@ -204,25 +207,22 @@
     <t>R3</t>
   </si>
   <si>
-    <t>?Wong Ming</t>
-  </si>
-  <si>
     <t>?Wong Kei</t>
   </si>
   <si>
     <t>?Reconfirm</t>
   </si>
   <si>
+    <t>#Denvendra</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
     <t>Ray</t>
   </si>
   <si>
     <t>?Casey</t>
-  </si>
-  <si>
-    <t>?#Denvendra</t>
-  </si>
-  <si>
-    <t>?Shirley</t>
   </si>
 </sst>
 </file>
@@ -562,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,7 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
@@ -600,7 +600,7 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -617,7 +617,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -749,34 +749,20 @@
       <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -784,8 +770,11 @@
       <c r="A19" t="s">
         <v>40</v>
       </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -795,8 +784,11 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -807,7 +799,7 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
@@ -818,22 +810,26 @@
         <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>Leo</t>
   </si>
@@ -108,6 +108,9 @@
     <t>Sis</t>
   </si>
   <si>
+    <t>Casey</t>
+  </si>
+  <si>
     <t>Sean</t>
   </si>
   <si>
@@ -222,7 +225,7 @@
     <t>Ray</t>
   </si>
   <si>
-    <t>?Casey</t>
+    <t>Fion</t>
   </si>
 </sst>
 </file>
@@ -562,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,16 +583,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -597,16 +600,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -617,13 +620,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -634,7 +637,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -657,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -688,7 +691,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -699,10 +702,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -713,65 +716,62 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
@@ -807,29 +807,39 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
   <si>
     <t>Leo</t>
   </si>
@@ -192,24 +192,12 @@
     <t xml:space="preserve">Ellen </t>
   </si>
   <si>
-    <t>Ah Chicken</t>
-  </si>
-  <si>
     <t>Bean Man</t>
   </si>
   <si>
     <t>Foo Kwai</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
     <t>?Wong Kei</t>
   </si>
   <si>
@@ -226,6 +214,120 @@
   </si>
   <si>
     <t>Fion</t>
+  </si>
+  <si>
+    <t>廖日雲</t>
+  </si>
+  <si>
+    <t>廖苑雲</t>
+  </si>
+  <si>
+    <t>廖江真</t>
+  </si>
+  <si>
+    <t>溫銘</t>
+  </si>
+  <si>
+    <t>何惠珍</t>
+  </si>
+  <si>
+    <t>溫泉德</t>
+  </si>
+  <si>
+    <t>溫子茹</t>
+  </si>
+  <si>
+    <t>溫國郷</t>
+  </si>
+  <si>
+    <t>何祥增</t>
+  </si>
+  <si>
+    <t>溫素芳</t>
+  </si>
+  <si>
+    <t>廖志</t>
+  </si>
+  <si>
+    <t>黃?寶</t>
+  </si>
+  <si>
+    <t>廖海平</t>
+  </si>
+  <si>
+    <t>陳小?</t>
+  </si>
+  <si>
+    <t>廖雲基</t>
+  </si>
+  <si>
+    <t>廖彩雲</t>
+  </si>
+  <si>
+    <t>廖富盛</t>
+  </si>
+  <si>
+    <t>張志謀</t>
+  </si>
+  <si>
+    <t>廖睦堯</t>
+  </si>
+  <si>
+    <t>廖維華</t>
+  </si>
+  <si>
+    <t>廖鋼基</t>
+  </si>
+  <si>
+    <t>廖偉良</t>
+  </si>
+  <si>
+    <t>廖素</t>
+  </si>
+  <si>
+    <t>黃錦萍</t>
+  </si>
+  <si>
+    <t>AR NE</t>
+  </si>
+  <si>
+    <t>葉雪梅</t>
+  </si>
+  <si>
+    <t>馮偉初</t>
+  </si>
+  <si>
+    <t>葉雪容</t>
+  </si>
+  <si>
+    <t>葉紅志</t>
+  </si>
+  <si>
+    <t>廖練雲</t>
+  </si>
+  <si>
+    <t>廖均梅</t>
+  </si>
+  <si>
+    <t>廖聰基</t>
+  </si>
+  <si>
+    <t>陳谷新</t>
+  </si>
+  <si>
+    <t>廖淼基</t>
+  </si>
+  <si>
+    <t>鍾露明</t>
+  </si>
+  <si>
+    <t>廖珍英</t>
+  </si>
+  <si>
+    <t>廖清泉</t>
+  </si>
+  <si>
+    <t>溫惠華</t>
   </si>
 </sst>
 </file>
@@ -565,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H10" sqref="H10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,269 +679,397 @@
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
       <c r="E19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
         <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="18195" windowHeight="9780"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="18615" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <t>Leo</t>
   </si>
@@ -255,9 +255,6 @@
     <t>廖海平</t>
   </si>
   <si>
-    <t>陳小?</t>
-  </si>
-  <si>
     <t>廖雲基</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
     <t>廖偉良</t>
   </si>
   <si>
-    <t>廖素</t>
-  </si>
-  <si>
     <t>黃錦萍</t>
   </si>
   <si>
@@ -328,6 +322,15 @@
   </si>
   <si>
     <t>溫惠華</t>
+  </si>
+  <si>
+    <t>陳小凡</t>
+  </si>
+  <si>
+    <t>廖素琼</t>
+  </si>
+  <si>
+    <t>Chris Ng</t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,16 +696,16 @@
         <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>37</v>
@@ -719,16 +722,16 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>38</v>
@@ -745,16 +748,16 @@
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>36</v>
@@ -771,16 +774,16 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
@@ -797,16 +800,16 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -823,16 +826,16 @@
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -843,22 +846,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -869,7 +872,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -878,13 +881,13 @@
         <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
@@ -895,22 +898,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -921,79 +924,82 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
         <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
       </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
       </c>
       <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
         <v>84</v>
       </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
       <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
       </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
         <v>42</v>
@@ -1004,7 +1010,7 @@
         <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
         <v>10</v>
@@ -1015,10 +1021,10 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1028,8 +1034,11 @@
       <c r="A20" t="s">
         <v>39</v>
       </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
@@ -1039,8 +1048,8 @@
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="G21" t="s">
-        <v>59</v>
+      <c r="E21" t="s">
+        <v>16</v>
       </c>
       <c r="H21" t="s">
         <v>64</v>
@@ -1049,9 +1058,6 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
-      </c>
-      <c r="G22" t="s">
-        <v>57</v>
       </c>
       <c r="H22" t="s">
         <v>63</v>

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t>Leo</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Zuey Tsui</t>
   </si>
   <si>
-    <t>Mak Wing</t>
-  </si>
-  <si>
     <t>Harry Cheung Wife</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>廖志</t>
   </si>
   <si>
-    <t>黃?寶</t>
-  </si>
-  <si>
     <t>廖海平</t>
   </si>
   <si>
@@ -331,6 +325,15 @@
   </si>
   <si>
     <t>Chris Ng</t>
+  </si>
+  <si>
+    <t>Huayi Daughter 11yr</t>
+  </si>
+  <si>
+    <t>Mak Tin Wing</t>
+  </si>
+  <si>
+    <t>黃塋塋</t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,16 +696,16 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
@@ -719,16 +722,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -745,16 +748,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -763,7 +766,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -771,13 +774,13 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>34</v>
@@ -789,7 +792,7 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -797,13 +800,13 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -815,7 +818,7 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -823,13 +826,13 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -841,21 +844,21 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -867,21 +870,21 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
         <v>50</v>
@@ -893,21 +896,21 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -919,24 +922,24 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
+        <v>81</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -944,62 +947,65 @@
       <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>35</v>
+      <c r="H10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
       <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
         <v>42</v>
@@ -1010,7 +1016,7 @@
         <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
         <v>10</v>
@@ -1021,10 +1027,10 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1038,7 +1044,7 @@
         <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
@@ -1052,20 +1058,20 @@
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1075,7 +1081,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -195,9 +195,6 @@
     <t>Foo Kwai</t>
   </si>
   <si>
-    <t>?Wong Kei</t>
-  </si>
-  <si>
     <t>?Reconfirm</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>黃塋塋</t>
+  </si>
+  <si>
+    <t>Wong Kei</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,13 +696,13 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
         <v>79</v>
@@ -722,13 +722,13 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -748,16 +748,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
+        <v>88</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -774,16 +774,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -800,22 +800,22 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>32</v>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
@@ -826,22 +826,22 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -849,25 +849,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -875,25 +875,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -901,25 +901,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -927,25 +927,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
+      <c r="E10" t="s">
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
         <v>31</v>
@@ -953,25 +953,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
         <v>52</v>
@@ -979,44 +979,41 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>53</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
       </c>
       <c r="H18" t="s">
         <v>10</v>
@@ -1026,11 +1023,8 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1040,11 +1034,8 @@
       <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>54</v>
-      </c>
-      <c r="G20" t="s">
-        <v>56</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
@@ -1054,34 +1045,43 @@
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" t="s">
         <v>60</v>
       </c>
-      <c r="H22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
       <c r="H24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -676,7 +676,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +965,7 @@
         <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -974,7 +974,7 @@
         <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -1000,7 +1000,7 @@
         <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <t>Leo</t>
   </si>
@@ -273,15 +273,9 @@
     <t>黃錦萍</t>
   </si>
   <si>
-    <t>AR NE</t>
-  </si>
-  <si>
     <t>葉雪梅</t>
   </si>
   <si>
-    <t>馮偉初</t>
-  </si>
-  <si>
     <t>葉雪容</t>
   </si>
   <si>
@@ -334,6 +328,9 @@
   </si>
   <si>
     <t>Wong Kei</t>
+  </si>
+  <si>
+    <t>ANI</t>
   </si>
 </sst>
 </file>
@@ -676,7 +673,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,13 +696,13 @@
         <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
@@ -725,13 +722,13 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -751,10 +748,10 @@
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>34</v>
@@ -766,7 +763,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -777,10 +774,10 @@
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -803,10 +800,10 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -832,7 +829,7 @@
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -849,16 +846,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
         <v>50</v>
@@ -875,16 +872,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
@@ -901,13 +898,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
@@ -927,16 +924,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -953,13 +950,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
         <v>78</v>
@@ -979,22 +976,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
         <v>42</v>
@@ -1005,10 +1002,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1024,7 +1018,7 @@
         <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t>Leo</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>ANI</t>
+  </si>
+  <si>
+    <t>Richard Zhao</t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,8 +814,8 @@
       <c r="F5" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
+      <c r="G5" t="s">
+        <v>105</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
@@ -837,8 +840,8 @@
       <c r="F6" t="s">
         <v>47</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -864,7 +867,7 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -890,7 +893,7 @@
         <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -916,7 +919,7 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -942,7 +945,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>31</v>
@@ -968,7 +971,7 @@
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -994,7 +997,7 @@
         <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -1003,6 +1006,9 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -676,7 +676,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +711,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -736,8 +736,8 @@
       <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
+      <c r="G2" t="s">
+        <v>24</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -757,13 +757,13 @@
         <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>36</v>
+      <c r="G3" t="s">
+        <v>105</v>
       </c>
       <c r="H3" t="s">
         <v>100</v>
@@ -782,14 +782,14 @@
       <c r="D4" t="s">
         <v>88</v>
       </c>
-      <c r="E4" t="s">
-        <v>3</v>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>24</v>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -808,14 +808,14 @@
       <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
@@ -835,13 +835,13 @@
         <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
+      <c r="G6" t="s">
+        <v>2</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -861,13 +861,13 @@
         <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -887,13 +887,13 @@
         <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -913,13 +913,13 @@
         <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -939,13 +939,13 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
         <v>31</v>
@@ -971,7 +971,7 @@
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -997,7 +997,7 @@
         <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -1008,7 +1008,7 @@
         <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>Leo</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>Richard Zhao</t>
+  </si>
+  <si>
+    <t>Tony Tam</t>
   </si>
 </sst>
 </file>
@@ -676,7 +679,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,8 +791,8 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
+      <c r="G4" t="s">
+        <v>106</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -814,8 +817,8 @@
       <c r="F5" t="s">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
@@ -841,7 +844,7 @@
         <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -867,7 +870,7 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -893,7 +896,7 @@
         <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -919,7 +922,7 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -945,7 +948,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
         <v>31</v>
@@ -971,7 +974,7 @@
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -994,10 +997,10 @@
         <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -1007,8 +1010,11 @@
       <c r="A13" t="s">
         <v>96</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
         <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="135" windowWidth="18615" windowHeight="10830"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Seating" sheetId="1" r:id="rId1"/>
+    <sheet name="Contact" sheetId="2" r:id="rId2"/>
+    <sheet name="Car" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="146">
   <si>
     <t>Leo</t>
   </si>
@@ -337,19 +337,164 @@
   </si>
   <si>
     <t>Tony Tam</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>6409 3285</t>
+  </si>
+  <si>
+    <t>9608 4620</t>
+  </si>
+  <si>
+    <t>9529 1899</t>
+  </si>
+  <si>
+    <t>VF 1680</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>9802 9700</t>
+  </si>
+  <si>
+    <t>6333 8193</t>
+  </si>
+  <si>
+    <t>5182 1122</t>
+  </si>
+  <si>
+    <t>9226 1217</t>
+  </si>
+  <si>
+    <t>細 Tony</t>
+  </si>
+  <si>
+    <r>
+      <t>伴娘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>姊妹</t>
+  </si>
+  <si>
+    <t>嘉賓</t>
+  </si>
+  <si>
+    <t>嘉欣</t>
+  </si>
+  <si>
+    <t>9804 6277</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>趣影</t>
+  </si>
+  <si>
+    <t>詩薇</t>
+  </si>
+  <si>
+    <t>小如</t>
+  </si>
+  <si>
+    <t>嘉仔</t>
+  </si>
+  <si>
+    <t>C 吻</t>
+  </si>
+  <si>
+    <t>6010 5191</t>
+  </si>
+  <si>
+    <t>9747 1576</t>
+  </si>
+  <si>
+    <t>6229 4669</t>
+  </si>
+  <si>
+    <t>6686 1409</t>
+  </si>
+  <si>
+    <t>6341 3634</t>
+  </si>
+  <si>
+    <t>9792 3818</t>
+  </si>
+  <si>
+    <t>MC/姊妹</t>
+  </si>
+  <si>
+    <t>9033 2294</t>
+  </si>
+  <si>
+    <t>林祺</t>
+  </si>
+  <si>
+    <t>MC/兄弟</t>
+  </si>
+  <si>
+    <t>兄弟</t>
+  </si>
+  <si>
+    <r>
+      <t>伴郎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -679,7 +824,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,24 +1243,199 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -428,9 +428,6 @@
     <t>嘉仔</t>
   </si>
   <si>
-    <t>C 吻</t>
-  </si>
-  <si>
     <t>6010 5191</t>
   </si>
   <si>
@@ -476,6 +473,9 @@
       </rPr>
       <t> </t>
     </r>
+  </si>
+  <si>
+    <t>Celia</t>
   </si>
 </sst>
 </file>
@@ -824,7 +824,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1041,7 @@
         <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -1158,11 +1158,11 @@
       <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
       <c r="G18" t="s">
         <v>53</v>
       </c>
@@ -1174,6 +1174,9 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
       <c r="G19" t="s">
         <v>103</v>
       </c>
@@ -1185,6 +1188,9 @@
       <c r="A20" t="s">
         <v>39</v>
       </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
       <c r="G20" t="s">
         <v>54</v>
       </c>
@@ -1208,24 +1214,18 @@
         <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G23" t="s">
-        <v>58</v>
-      </c>
       <c r="H23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G24" t="s">
-        <v>56</v>
-      </c>
       <c r="H24" t="s">
         <v>30</v>
       </c>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,10 +1267,10 @@
         <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s">
         <v>117</v>
@@ -1278,16 +1278,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>109</v>
@@ -1304,10 +1304,10 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>107</v>
@@ -1324,10 +1324,10 @@
         <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>121</v>
@@ -1344,10 +1344,10 @@
         <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>108</v>
@@ -1364,10 +1364,10 @@
         <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>110</v>
@@ -1384,10 +1384,10 @@
         <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>111</v>
@@ -1404,7 +1404,7 @@
         <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="18615" windowHeight="10830"/>
+    <workbookView xWindow="660" yWindow="210" windowWidth="18615" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="Seating" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="147">
   <si>
     <t>Leo</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>Celia</t>
+  </si>
+  <si>
+    <t>HT1</t>
   </si>
 </sst>
 </file>
@@ -821,11 +824,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -841,218 +842,218 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1">
         <v>7</v>
+      </c>
+      <c r="C1">
+        <v>8</v>
+      </c>
+      <c r="D1">
+        <v>13</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>9</v>
+      </c>
+      <c r="G1">
+        <v>11</v>
+      </c>
+      <c r="H1">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
+        <v>84</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
         <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
@@ -1061,177 +1062,203 @@
         <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>96</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
         <v>57</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>53</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>59</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>15</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
         <v>63</v>
       </c>
     </row>

--- a/nameList.xlsx
+++ b/nameList.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="210" windowWidth="18615" windowHeight="10830"/>
+    <workbookView xWindow="570" yWindow="-90" windowWidth="18615" windowHeight="10830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Seating" sheetId="1" r:id="rId1"/>
     <sheet name="Contact" sheetId="2" r:id="rId2"/>
     <sheet name="Car" sheetId="3" r:id="rId3"/>
+    <sheet name="Money" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="179">
   <si>
     <t>Leo</t>
   </si>
@@ -480,12 +481,112 @@
   <si>
     <t>HT1</t>
   </si>
+  <si>
+    <t>二哥</t>
+  </si>
+  <si>
+    <t>RB 9442</t>
+  </si>
+  <si>
+    <t>陳烈風</t>
+  </si>
+  <si>
+    <t>28 Seats</t>
+  </si>
+  <si>
+    <t>TC 5826</t>
+  </si>
+  <si>
+    <t>PZ 9886</t>
+  </si>
+  <si>
+    <t>GE 9128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terence </t>
+  </si>
+  <si>
+    <t>KL 2289</t>
+  </si>
+  <si>
+    <t>AM Only</t>
+  </si>
+  <si>
+    <t>Mr. Law</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Hannie</t>
+  </si>
+  <si>
+    <t>Make-up</t>
+  </si>
+  <si>
+    <t>9217 3401</t>
+  </si>
+  <si>
+    <t>9163 0805</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Terence</t>
+  </si>
+  <si>
+    <t>9272 8246</t>
+  </si>
+  <si>
+    <t>Mum Make-up</t>
+  </si>
+  <si>
+    <t>Sis Make-up</t>
+  </si>
+  <si>
+    <t>Yee</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>5128 2835</t>
+  </si>
+  <si>
+    <t>5680 9729</t>
+  </si>
+  <si>
+    <t>*Taxi</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>6016 5395</t>
+  </si>
+  <si>
+    <t>表弟</t>
+  </si>
+  <si>
+    <t>TW 8986</t>
+  </si>
+  <si>
+    <t>UD 461</t>
+  </si>
+  <si>
+    <t>張天成</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,6 +599,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -517,14 +625,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -826,7 +937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1441,25 +1554,194 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
       <c r="B1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3740</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="2">
+        <v>13560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <f>SUM(D2:D14)</f>
+        <v>19188</v>
       </c>
     </row>
   </sheetData>
